--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Shruti\Infostretch\Training\qaf-blank-project-master\qaf-blank-project-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188FAD21-840A-4D15-8CAF-C91099D61A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA9B74-94EF-40A5-890B-E57187100136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Test case ID</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Navigate to the recipe of the day page</t>
+  </si>
+  <si>
+    <t>Go to food.com, click Recipe, click banana bread recipe, update the value of yield to 0</t>
+  </si>
+  <si>
+    <t>Value of yield resets to 1 value</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -352,6 +358,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,12 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -689,7 +698,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,50 +720,50 @@
         <v>5</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>43952</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>43953</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -806,37 +815,37 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
@@ -973,11 +982,26 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1032,16 +1056,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
